--- a/LSM Testing.xlsx
+++ b/LSM Testing.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Full" sheetId="1" r:id="rId1"/>
+    <sheet name="NumRuns" sheetId="2" r:id="rId2"/>
+    <sheet name="Bloom Filter" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,9 +27,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t>lsm-tree was compiled with optimization - stepping may behave oddly; variables may not be available.</t>
+    <t>**OVERALL WINNER?</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>Memory Mapped</t>
+  </si>
+  <si>
+    <t>System Calls</t>
   </si>
 </sst>
 </file>
@@ -62,10 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,6 +97,3884 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Insertion and Lookup Speed By</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number of Runs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>inserts/sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>NumRuns!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumRuns!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>191556.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>551992.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>915979.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16673E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.37002E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.40917E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.52849E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4858E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>lookups/sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>NumRuns!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>750.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumRuns!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>633498.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>560811.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341450.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248005.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205014.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88122.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55074.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2038751504"/>
+        <c:axId val="-2038755072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2038751504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2038755072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2038755072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2038751504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Merge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> and Lookup Times by IO Paradigm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumRuns!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Memory Mapped</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NumRuns!$B$51:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lookup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumRuns!$C$51:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>123.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>NumRuns!$D$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>System Calls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NumRuns!$B$51:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Merge</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lookup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NumRuns!$D$51:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1834.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2029727264"/>
+        <c:axId val="-2029545600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2029727264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2029545600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2029545600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2029727264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> By Bloom Filter Parameter</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>inserts/sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bloom Filter'!$D$1:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>NONE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00E-05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00E-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bloom Filter'!$G$1:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>909386.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>793166.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>997351.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>888420.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>862762.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>774512.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>831449.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>lookups/sec</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bloom Filter'!$D$1:$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>NONE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00E-05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00E-06</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bloom Filter'!$H$1:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3633.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27401.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156721.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>309019.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>340162.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327806.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>340143.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2037541232"/>
+        <c:axId val="-2037734512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2037541232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2037734512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2037734512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2037541232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lookups</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Per Second By Fence Pointer Pagesize</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$1:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NONE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$1:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>540541.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>642674.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>692521.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>571102.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>538793.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2075036464"/>
+        <c:axId val="-2075878080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2075036464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075878080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075878080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2075036464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>237067</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>745067</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>745066</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>135467</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,10 +4240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1125"/>
+  <dimension ref="A1:K1124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1090" workbookViewId="0">
-      <selection activeCell="E1105" sqref="E1105"/>
+    <sheetView topLeftCell="A1052" workbookViewId="0">
+      <selection activeCell="F1070" sqref="A1070:F1070"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34147,7 +38044,7 @@
         <v>5.7891000000000004</v>
       </c>
     </row>
-    <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>1000000</v>
       </c>
@@ -34179,7 +38076,7 @@
         <v>6.2466999999999997</v>
       </c>
     </row>
-    <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>1000000</v>
       </c>
@@ -34211,7 +38108,7 @@
         <v>4.6936200000000001</v>
       </c>
     </row>
-    <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>1000000</v>
       </c>
@@ -34243,7 +38140,7 @@
         <v>11.649100000000001</v>
       </c>
     </row>
-    <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>1000000</v>
       </c>
@@ -34275,7 +38172,7 @@
         <v>9.6404499999999995</v>
       </c>
     </row>
-    <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>1000000</v>
       </c>
@@ -34307,7 +38204,7 @@
         <v>11.585100000000001</v>
       </c>
     </row>
-    <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>1000000</v>
       </c>
@@ -34339,7 +38236,7 @@
         <v>9.5758100000000006</v>
       </c>
     </row>
-    <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>1000000</v>
       </c>
@@ -34371,7 +38268,7 @@
         <v>9.1504300000000001</v>
       </c>
     </row>
-    <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>1000000</v>
       </c>
@@ -34403,7 +38300,7 @@
         <v>7.5594000000000001</v>
       </c>
     </row>
-    <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>1000000</v>
       </c>
@@ -34435,7 +38332,7 @@
         <v>8.5314200000000007</v>
       </c>
     </row>
-    <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>1000000</v>
       </c>
@@ -34467,7 +38364,7 @@
         <v>7.7418399999999998</v>
       </c>
     </row>
-    <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>1000000</v>
       </c>
@@ -34499,7 +38396,7 @@
         <v>8.6367799999999999</v>
       </c>
     </row>
-    <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>1000000</v>
       </c>
@@ -34531,7 +38428,7 @@
         <v>7.4813799999999997</v>
       </c>
     </row>
-    <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1069">
         <v>1000000</v>
       </c>
@@ -34563,7 +38460,7 @@
         <v>4.3804699999999999</v>
       </c>
     </row>
-    <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1070">
         <v>1000000</v>
       </c>
@@ -34594,8 +38491,11 @@
       <c r="J1070">
         <v>3.0708600000000001</v>
       </c>
-    </row>
-    <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1070" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1071">
         <v>1000000</v>
       </c>
@@ -34627,7 +38527,7 @@
         <v>146.98699999999999</v>
       </c>
     </row>
-    <row r="1072" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1072">
         <v>1000000</v>
       </c>
@@ -34724,8 +38624,35 @@
       </c>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1075" t="s">
-        <v>0</v>
+      <c r="A1075">
+        <v>1000000</v>
+      </c>
+      <c r="B1075">
+        <v>100</v>
+      </c>
+      <c r="C1075">
+        <v>100000</v>
+      </c>
+      <c r="D1075">
+        <v>0.1</v>
+      </c>
+      <c r="E1075">
+        <v>0.8</v>
+      </c>
+      <c r="F1075">
+        <v>100</v>
+      </c>
+      <c r="G1075" s="2">
+        <v>1087890</v>
+      </c>
+      <c r="H1075" s="2">
+        <v>21315.200000000001</v>
+      </c>
+      <c r="I1075">
+        <v>0.91920999999999997</v>
+      </c>
+      <c r="J1075">
+        <v>46.914900000000003</v>
       </c>
     </row>
     <row r="1076" spans="1:10" x14ac:dyDescent="0.2">
@@ -34745,19 +38672,19 @@
         <v>0.8</v>
       </c>
       <c r="F1076">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1076" s="2">
-        <v>1087890</v>
+        <v>1058260</v>
       </c>
       <c r="H1076" s="2">
-        <v>21315.200000000001</v>
+        <v>30578</v>
       </c>
       <c r="I1076">
-        <v>0.91920999999999997</v>
+        <v>0.94494800000000001</v>
       </c>
       <c r="J1076">
-        <v>46.914900000000003</v>
+        <v>32.703200000000002</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.2">
@@ -34765,31 +38692,31 @@
         <v>1000000</v>
       </c>
       <c r="B1077">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C1077">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="D1077">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="E1077">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1077">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1077" s="2">
-        <v>1058260</v>
+        <v>1142900</v>
       </c>
       <c r="H1077" s="2">
-        <v>30578</v>
+        <v>34900.199999999997</v>
       </c>
       <c r="I1077">
-        <v>0.94494800000000001</v>
+        <v>0.87496399999999996</v>
       </c>
       <c r="J1077">
-        <v>32.703200000000002</v>
+        <v>28.653099999999998</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.2">
@@ -34809,19 +38736,19 @@
         <v>0.2</v>
       </c>
       <c r="F1078">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1078" s="2">
-        <v>1142900</v>
+        <v>1138100</v>
       </c>
       <c r="H1078" s="2">
-        <v>34900.199999999997</v>
+        <v>37245.1</v>
       </c>
       <c r="I1078">
-        <v>0.87496399999999996</v>
+        <v>0.87866100000000003</v>
       </c>
       <c r="J1078">
-        <v>28.653099999999998</v>
+        <v>26.8492</v>
       </c>
     </row>
     <row r="1079" spans="1:10" x14ac:dyDescent="0.2">
@@ -34838,22 +38765,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1079">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1079">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1079" s="2">
-        <v>1138100</v>
+        <v>1340170</v>
       </c>
       <c r="H1079" s="2">
-        <v>37245.1</v>
+        <v>35026.1</v>
       </c>
       <c r="I1079">
-        <v>0.87866100000000003</v>
+        <v>0.74617599999999995</v>
       </c>
       <c r="J1079">
-        <v>26.8492</v>
+        <v>28.5502</v>
       </c>
     </row>
     <row r="1080" spans="1:10" x14ac:dyDescent="0.2">
@@ -34873,19 +38800,19 @@
         <v>0.5</v>
       </c>
       <c r="F1080">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1080" s="2">
-        <v>1340170</v>
+        <v>1448010</v>
       </c>
       <c r="H1080" s="2">
-        <v>35026.1</v>
+        <v>36557.5</v>
       </c>
       <c r="I1080">
-        <v>0.74617599999999995</v>
+        <v>0.690604</v>
       </c>
       <c r="J1080">
-        <v>28.5502</v>
+        <v>27.354099999999999</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.2">
@@ -34902,22 +38829,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1081">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1081">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1081" s="2">
-        <v>1448010</v>
+        <v>1422500</v>
       </c>
       <c r="H1081" s="2">
-        <v>36557.5</v>
+        <v>43151.9</v>
       </c>
       <c r="I1081">
-        <v>0.690604</v>
+        <v>0.702986</v>
       </c>
       <c r="J1081">
-        <v>27.354099999999999</v>
+        <v>23.1739</v>
       </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.2">
@@ -34937,19 +38864,19 @@
         <v>0.8</v>
       </c>
       <c r="F1082">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1082" s="2">
-        <v>1422500</v>
+        <v>1490230</v>
       </c>
       <c r="H1082" s="2">
-        <v>43151.9</v>
+        <v>46471.8</v>
       </c>
       <c r="I1082">
-        <v>0.702986</v>
+        <v>0.67103800000000002</v>
       </c>
       <c r="J1082">
-        <v>23.1739</v>
+        <v>21.5184</v>
       </c>
     </row>
     <row r="1083" spans="1:10" x14ac:dyDescent="0.2">
@@ -34963,25 +38890,25 @@
         <v>10000</v>
       </c>
       <c r="D1083">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E1083">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1083">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1083" s="2">
-        <v>1490230</v>
+        <v>995376</v>
       </c>
       <c r="H1083" s="2">
-        <v>46471.8</v>
+        <v>24055.8</v>
       </c>
       <c r="I1083">
-        <v>0.67103800000000002</v>
+        <v>1.00465</v>
       </c>
       <c r="J1083">
-        <v>21.5184</v>
+        <v>41.570099999999996</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.2">
@@ -35001,19 +38928,19 @@
         <v>0.2</v>
       </c>
       <c r="F1084">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1084" s="2">
-        <v>995376</v>
+        <v>818885</v>
       </c>
       <c r="H1084" s="2">
-        <v>24055.8</v>
+        <v>26786.5</v>
       </c>
       <c r="I1084">
-        <v>1.00465</v>
+        <v>1.2211700000000001</v>
       </c>
       <c r="J1084">
-        <v>41.570099999999996</v>
+        <v>37.332299999999996</v>
       </c>
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.2">
@@ -35030,22 +38957,22 @@
         <v>0.1</v>
       </c>
       <c r="E1085">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1085">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1085" s="2">
-        <v>818885</v>
+        <v>1562990</v>
       </c>
       <c r="H1085" s="2">
-        <v>26786.5</v>
+        <v>26152.799999999999</v>
       </c>
       <c r="I1085">
-        <v>1.2211700000000001</v>
+        <v>0.63979799999999998</v>
       </c>
       <c r="J1085">
-        <v>37.332299999999996</v>
+        <v>38.236899999999999</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.2">
@@ -35065,19 +38992,19 @@
         <v>0.5</v>
       </c>
       <c r="F1086">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1086" s="2">
-        <v>1562990</v>
+        <v>1408100</v>
       </c>
       <c r="H1086" s="2">
-        <v>26152.799999999999</v>
+        <v>27642.799999999999</v>
       </c>
       <c r="I1086">
-        <v>0.63979799999999998</v>
+        <v>0.71017799999999998</v>
       </c>
       <c r="J1086">
-        <v>38.236899999999999</v>
+        <v>36.175699999999999</v>
       </c>
     </row>
     <row r="1087" spans="1:10" x14ac:dyDescent="0.2">
@@ -35094,22 +39021,22 @@
         <v>0.1</v>
       </c>
       <c r="E1087">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1087">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1087" s="2">
-        <v>1408100</v>
+        <v>1477390</v>
       </c>
       <c r="H1087" s="2">
-        <v>27642.799999999999</v>
+        <v>33665.4</v>
       </c>
       <c r="I1087">
-        <v>0.71017799999999998</v>
+        <v>0.67686900000000005</v>
       </c>
       <c r="J1087">
-        <v>36.175699999999999</v>
+        <v>29.7041</v>
       </c>
     </row>
     <row r="1088" spans="1:10" x14ac:dyDescent="0.2">
@@ -35129,19 +39056,19 @@
         <v>0.8</v>
       </c>
       <c r="F1088">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1088" s="2">
-        <v>1477390</v>
+        <v>1708040</v>
       </c>
       <c r="H1088" s="2">
-        <v>33665.4</v>
+        <v>35361.4</v>
       </c>
       <c r="I1088">
-        <v>0.67686900000000005</v>
+        <v>0.58546699999999996</v>
       </c>
       <c r="J1088">
-        <v>29.7041</v>
+        <v>28.279399999999999</v>
       </c>
     </row>
     <row r="1089" spans="1:10" x14ac:dyDescent="0.2">
@@ -35152,28 +39079,28 @@
         <v>500</v>
       </c>
       <c r="C1089">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D1089">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="E1089">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1089">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1089" s="2">
-        <v>1708040</v>
+        <v>1689640</v>
       </c>
       <c r="H1089" s="2">
-        <v>35361.4</v>
+        <v>33222.6</v>
       </c>
       <c r="I1089">
-        <v>0.58546699999999996</v>
+        <v>0.59184099999999995</v>
       </c>
       <c r="J1089">
-        <v>28.279399999999999</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.2">
@@ -35193,19 +39120,19 @@
         <v>0.2</v>
       </c>
       <c r="F1090">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1090" s="2">
-        <v>1689640</v>
+        <v>1767610</v>
       </c>
       <c r="H1090" s="2">
-        <v>33222.6</v>
+        <v>34701.1</v>
       </c>
       <c r="I1090">
-        <v>0.59184099999999995</v>
+        <v>0.56573600000000002</v>
       </c>
       <c r="J1090">
-        <v>30.1</v>
+        <v>28.817499999999999</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.2">
@@ -35222,22 +39149,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1091">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1091">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1091" s="2">
-        <v>1767610</v>
+        <v>1787110</v>
       </c>
       <c r="H1091" s="2">
-        <v>34701.1</v>
+        <v>32878.199999999997</v>
       </c>
       <c r="I1091">
-        <v>0.56573600000000002</v>
+        <v>0.55956300000000003</v>
       </c>
       <c r="J1091">
-        <v>28.817499999999999</v>
+        <v>30.415299999999998</v>
       </c>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.2">
@@ -35257,19 +39184,19 @@
         <v>0.5</v>
       </c>
       <c r="F1092">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1092" s="2">
-        <v>1787110</v>
+        <v>1731190</v>
       </c>
       <c r="H1092" s="2">
-        <v>32878.199999999997</v>
+        <v>34835.300000000003</v>
       </c>
       <c r="I1092">
-        <v>0.55956300000000003</v>
+        <v>0.57763699999999996</v>
       </c>
       <c r="J1092">
-        <v>30.415299999999998</v>
+        <v>28.706499999999998</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.2">
@@ -35286,22 +39213,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1093">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1093">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1093" s="2">
-        <v>1731190</v>
+        <v>1582290</v>
       </c>
       <c r="H1093" s="2">
-        <v>34835.300000000003</v>
+        <v>77260.7</v>
       </c>
       <c r="I1093">
-        <v>0.57763699999999996</v>
+        <v>0.631996</v>
       </c>
       <c r="J1093">
-        <v>28.706499999999998</v>
+        <v>12.943199999999999</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.2">
@@ -35321,19 +39248,19 @@
         <v>0.8</v>
       </c>
       <c r="F1094">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1094" s="2">
-        <v>1582290</v>
+        <v>1584030</v>
       </c>
       <c r="H1094" s="2">
-        <v>77260.7</v>
+        <v>84832.7</v>
       </c>
       <c r="I1094">
-        <v>0.631996</v>
+        <v>0.63129999999999997</v>
       </c>
       <c r="J1094">
-        <v>12.943199999999999</v>
+        <v>11.7879</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.2">
@@ -35347,25 +39274,25 @@
         <v>100000</v>
       </c>
       <c r="D1095">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E1095">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1095">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1095" s="2">
-        <v>1584030</v>
+        <v>1999110</v>
       </c>
       <c r="H1095" s="2">
-        <v>84832.7</v>
+        <v>5034.08</v>
       </c>
       <c r="I1095">
-        <v>0.63129999999999997</v>
+        <v>0.50022200000000006</v>
       </c>
       <c r="J1095">
-        <v>11.7879</v>
+        <v>198.64599999999999</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.2">
@@ -35385,19 +39312,19 @@
         <v>0.2</v>
       </c>
       <c r="F1096">
-        <v>100</v>
-      </c>
-      <c r="G1096" s="2">
-        <v>1999110</v>
+        <v>1000</v>
+      </c>
+      <c r="G1096" s="1">
+        <v>1863420</v>
       </c>
       <c r="H1096" s="2">
-        <v>5034.08</v>
+        <v>5490.02</v>
       </c>
       <c r="I1096">
-        <v>0.50022200000000006</v>
+        <v>0.53664800000000001</v>
       </c>
       <c r="J1096">
-        <v>198.64599999999999</v>
+        <v>182.149</v>
       </c>
     </row>
     <row r="1097" spans="1:10" x14ac:dyDescent="0.2">
@@ -35414,22 +39341,22 @@
         <v>0.1</v>
       </c>
       <c r="E1097">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1097">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1097" s="1">
-        <v>1863420</v>
+        <v>1963430</v>
       </c>
       <c r="H1097" s="2">
-        <v>5490.02</v>
+        <v>5338.29</v>
       </c>
       <c r="I1097">
-        <v>0.53664800000000001</v>
+        <v>0.50931199999999999</v>
       </c>
       <c r="J1097">
-        <v>182.149</v>
+        <v>187.32599999999999</v>
       </c>
     </row>
     <row r="1098" spans="1:10" x14ac:dyDescent="0.2">
@@ -35449,19 +39376,19 @@
         <v>0.5</v>
       </c>
       <c r="F1098">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1098" s="1">
-        <v>1963430</v>
+        <v>1844860</v>
       </c>
       <c r="H1098" s="2">
-        <v>5338.29</v>
+        <v>5538.51</v>
       </c>
       <c r="I1098">
-        <v>0.50931199999999999</v>
+        <v>0.54204799999999997</v>
       </c>
       <c r="J1098">
-        <v>187.32599999999999</v>
+        <v>180.554</v>
       </c>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
@@ -35478,22 +39405,22 @@
         <v>0.1</v>
       </c>
       <c r="E1099">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1099">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1099" s="1">
-        <v>1844860</v>
+        <v>1715980</v>
       </c>
       <c r="H1099" s="2">
-        <v>5538.51</v>
+        <v>20866.8</v>
       </c>
       <c r="I1099">
-        <v>0.54204799999999997</v>
+        <v>0.58275600000000005</v>
       </c>
       <c r="J1099">
-        <v>180.554</v>
+        <v>47.923000000000002</v>
       </c>
     </row>
     <row r="1100" spans="1:10" x14ac:dyDescent="0.2">
@@ -35513,19 +39440,19 @@
         <v>0.8</v>
       </c>
       <c r="F1100">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1100" s="1">
-        <v>1715980</v>
+        <v>1798150</v>
       </c>
       <c r="H1100" s="2">
-        <v>20866.8</v>
+        <v>23486.1</v>
       </c>
       <c r="I1100">
-        <v>0.58275600000000005</v>
+        <v>0.55612600000000001</v>
       </c>
       <c r="J1100">
-        <v>47.923000000000002</v>
+        <v>42.578400000000002</v>
       </c>
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
@@ -35533,31 +39460,31 @@
         <v>1000000</v>
       </c>
       <c r="B1101">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C1101">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="D1101">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="E1101">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1101">
-        <v>1000</v>
-      </c>
-      <c r="G1101" s="1">
-        <v>1798150</v>
+        <v>100</v>
+      </c>
+      <c r="G1101" s="2">
+        <v>960594</v>
       </c>
       <c r="H1101" s="2">
-        <v>23486.1</v>
+        <v>17529</v>
       </c>
       <c r="I1101">
-        <v>0.55612600000000001</v>
+        <v>1.0410200000000001</v>
       </c>
       <c r="J1101">
-        <v>42.578400000000002</v>
+        <v>57.048299999999998</v>
       </c>
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
@@ -35577,19 +39504,19 @@
         <v>0.2</v>
       </c>
       <c r="F1102">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1102" s="2">
-        <v>960594</v>
+        <v>949115</v>
       </c>
       <c r="H1102" s="2">
-        <v>17529</v>
+        <v>18734.2</v>
       </c>
       <c r="I1102">
-        <v>1.0410200000000001</v>
+        <v>1.0536099999999999</v>
       </c>
       <c r="J1102">
-        <v>57.048299999999998</v>
+        <v>53.378399999999999</v>
       </c>
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
@@ -35606,22 +39533,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1103">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1103">
-        <v>1000</v>
-      </c>
-      <c r="G1103" s="2">
-        <v>949115</v>
+        <v>100</v>
+      </c>
+      <c r="G1103" s="1">
+        <v>1215800</v>
       </c>
       <c r="H1103" s="2">
-        <v>18734.2</v>
+        <v>16911.599999999999</v>
       </c>
       <c r="I1103">
-        <v>1.0536099999999999</v>
+        <v>0.82250199999999996</v>
       </c>
       <c r="J1103">
-        <v>53.378399999999999</v>
+        <v>59.130899999999997</v>
       </c>
     </row>
     <row r="1104" spans="1:10" x14ac:dyDescent="0.2">
@@ -35641,19 +39568,19 @@
         <v>0.5</v>
       </c>
       <c r="F1104">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1104" s="1">
-        <v>1215800</v>
+        <v>1274560</v>
       </c>
       <c r="H1104" s="2">
-        <v>16911.599999999999</v>
+        <v>18055.5</v>
       </c>
       <c r="I1104">
-        <v>0.82250199999999996</v>
+        <v>0.78458600000000001</v>
       </c>
       <c r="J1104">
-        <v>59.130899999999997</v>
+        <v>55.384799999999998</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.2">
@@ -35670,22 +39597,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1105">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1105">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1105" s="1">
-        <v>1274560</v>
+        <v>1209890</v>
       </c>
       <c r="H1105" s="2">
-        <v>18055.5</v>
+        <v>21932.1</v>
       </c>
       <c r="I1105">
-        <v>0.78458600000000001</v>
+        <v>0.82652300000000001</v>
       </c>
       <c r="J1105">
-        <v>55.384799999999998</v>
+        <v>45.595199999999998</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.2">
@@ -35705,19 +39632,19 @@
         <v>0.8</v>
       </c>
       <c r="F1106">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1106" s="1">
-        <v>1209890</v>
+        <v>1333270</v>
       </c>
       <c r="H1106" s="2">
-        <v>21932.1</v>
+        <v>23456.9</v>
       </c>
       <c r="I1106">
-        <v>0.82652300000000001</v>
+        <v>0.75003600000000004</v>
       </c>
       <c r="J1106">
-        <v>45.595199999999998</v>
+        <v>42.631399999999999</v>
       </c>
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
@@ -35731,25 +39658,25 @@
         <v>10000</v>
       </c>
       <c r="D1107">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E1107">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1107">
-        <v>1000</v>
-      </c>
-      <c r="G1107" s="1">
-        <v>1333270</v>
+        <v>100</v>
+      </c>
+      <c r="G1107" s="2">
+        <v>996908</v>
       </c>
       <c r="H1107" s="2">
-        <v>23456.9</v>
+        <v>13792.7</v>
       </c>
       <c r="I1107">
-        <v>0.75003600000000004</v>
+        <v>1.0031000000000001</v>
       </c>
       <c r="J1107">
-        <v>42.631399999999999</v>
+        <v>72.502300000000005</v>
       </c>
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
@@ -35769,19 +39696,19 @@
         <v>0.2</v>
       </c>
       <c r="F1108">
-        <v>100</v>
-      </c>
-      <c r="G1108" s="2">
-        <v>996908</v>
+        <v>1000</v>
+      </c>
+      <c r="G1108" s="1">
+        <v>1011160</v>
       </c>
       <c r="H1108" s="2">
-        <v>13792.7</v>
+        <v>14003.6</v>
       </c>
       <c r="I1108">
-        <v>1.0031000000000001</v>
+        <v>0.98896399999999995</v>
       </c>
       <c r="J1108">
-        <v>72.502300000000005</v>
+        <v>71.410399999999996</v>
       </c>
     </row>
     <row r="1109" spans="1:10" x14ac:dyDescent="0.2">
@@ -35798,22 +39725,22 @@
         <v>0.1</v>
       </c>
       <c r="E1109">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1109">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1109" s="1">
-        <v>1011160</v>
+        <v>1421900</v>
       </c>
       <c r="H1109" s="2">
-        <v>14003.6</v>
+        <v>13990.4</v>
       </c>
       <c r="I1109">
-        <v>0.98896399999999995</v>
+        <v>0.70328299999999999</v>
       </c>
       <c r="J1109">
-        <v>71.410399999999996</v>
+        <v>71.477800000000002</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
@@ -35833,19 +39760,19 @@
         <v>0.5</v>
       </c>
       <c r="F1110">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1110" s="1">
-        <v>1421900</v>
+        <v>1329310</v>
       </c>
       <c r="H1110" s="2">
-        <v>13990.4</v>
+        <v>14587.4</v>
       </c>
       <c r="I1110">
-        <v>0.70328299999999999</v>
+        <v>0.75227100000000002</v>
       </c>
       <c r="J1110">
-        <v>71.477800000000002</v>
+        <v>68.552300000000002</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.2">
@@ -35862,22 +39789,22 @@
         <v>0.1</v>
       </c>
       <c r="E1111">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1111">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1111" s="1">
-        <v>1329310</v>
+        <v>1435140</v>
       </c>
       <c r="H1111" s="2">
-        <v>14587.4</v>
+        <v>17977.400000000001</v>
       </c>
       <c r="I1111">
-        <v>0.75227100000000002</v>
+        <v>0.696797</v>
       </c>
       <c r="J1111">
-        <v>68.552300000000002</v>
+        <v>55.625300000000003</v>
       </c>
     </row>
     <row r="1112" spans="1:10" x14ac:dyDescent="0.2">
@@ -35897,19 +39824,19 @@
         <v>0.8</v>
       </c>
       <c r="F1112">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1112" s="1">
-        <v>1435140</v>
+        <v>1346010</v>
       </c>
       <c r="H1112" s="2">
-        <v>17977.400000000001</v>
+        <v>18038</v>
       </c>
       <c r="I1112">
-        <v>0.696797</v>
+        <v>0.74293500000000001</v>
       </c>
       <c r="J1112">
-        <v>55.625300000000003</v>
+        <v>55.438600000000001</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.2">
@@ -35920,28 +39847,28 @@
         <v>1000</v>
       </c>
       <c r="C1113">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D1113">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="E1113">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1113">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1113" s="1">
-        <v>1346010</v>
+        <v>1831220</v>
       </c>
       <c r="H1113" s="2">
-        <v>18038</v>
+        <v>16565</v>
       </c>
       <c r="I1113">
-        <v>0.74293500000000001</v>
+        <v>0.54608299999999999</v>
       </c>
       <c r="J1113">
-        <v>55.438600000000001</v>
+        <v>60.368400000000001</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.2">
@@ -35961,19 +39888,19 @@
         <v>0.2</v>
       </c>
       <c r="F1114">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1114" s="1">
-        <v>1831220</v>
+        <v>1837360</v>
       </c>
       <c r="H1114" s="2">
-        <v>16565</v>
+        <v>14583.1</v>
       </c>
       <c r="I1114">
-        <v>0.54608299999999999</v>
+        <v>0.54425999999999997</v>
       </c>
       <c r="J1114">
-        <v>60.368400000000001</v>
+        <v>68.572699999999998</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.2">
@@ -35990,22 +39917,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1115">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1115">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1115" s="1">
-        <v>1837360</v>
+        <v>1497260</v>
       </c>
       <c r="H1115" s="2">
-        <v>14583.1</v>
+        <v>15636</v>
       </c>
       <c r="I1115">
-        <v>0.54425999999999997</v>
+        <v>0.66788700000000001</v>
       </c>
       <c r="J1115">
-        <v>68.572699999999998</v>
+        <v>63.954999999999998</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.2">
@@ -36025,19 +39952,19 @@
         <v>0.5</v>
       </c>
       <c r="F1116">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1116" s="1">
-        <v>1497260</v>
+        <v>1722380</v>
       </c>
       <c r="H1116" s="2">
-        <v>15636</v>
+        <v>16845</v>
       </c>
       <c r="I1116">
-        <v>0.66788700000000001</v>
+        <v>0.58059300000000003</v>
       </c>
       <c r="J1116">
-        <v>63.954999999999998</v>
+        <v>59.364800000000002</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.2">
@@ -36054,22 +39981,22 @@
         <v>1E-3</v>
       </c>
       <c r="E1117">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1117">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1117" s="1">
-        <v>1722380</v>
+        <v>1410130</v>
       </c>
       <c r="H1117" s="2">
-        <v>16845</v>
+        <v>41353.9</v>
       </c>
       <c r="I1117">
-        <v>0.58059300000000003</v>
+        <v>0.70915499999999998</v>
       </c>
       <c r="J1117">
-        <v>59.364800000000002</v>
+        <v>24.1815</v>
       </c>
     </row>
     <row r="1118" spans="1:10" x14ac:dyDescent="0.2">
@@ -36089,19 +40016,19 @@
         <v>0.8</v>
       </c>
       <c r="F1118">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1118" s="1">
-        <v>1410130</v>
+        <v>1574120</v>
       </c>
       <c r="H1118" s="2">
-        <v>41353.9</v>
+        <v>43618.7</v>
       </c>
       <c r="I1118">
-        <v>0.70915499999999998</v>
+        <v>0.63527699999999998</v>
       </c>
       <c r="J1118">
-        <v>24.1815</v>
+        <v>22.925999999999998</v>
       </c>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.2">
@@ -36115,25 +40042,25 @@
         <v>100000</v>
       </c>
       <c r="D1119">
-        <v>1E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E1119">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F1119">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1119" s="1">
-        <v>1574120</v>
+        <v>2205550</v>
       </c>
       <c r="H1119" s="2">
-        <v>43618.7</v>
+        <v>4576.88</v>
       </c>
       <c r="I1119">
-        <v>0.63527699999999998</v>
+        <v>0.453401</v>
       </c>
       <c r="J1119">
-        <v>22.925999999999998</v>
+        <v>218.49</v>
       </c>
     </row>
     <row r="1120" spans="1:10" x14ac:dyDescent="0.2">
@@ -36153,19 +40080,19 @@
         <v>0.2</v>
       </c>
       <c r="F1120">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1120" s="1">
-        <v>2205550</v>
+        <v>2065990</v>
       </c>
       <c r="H1120" s="2">
-        <v>4576.88</v>
+        <v>4610.5200000000004</v>
       </c>
       <c r="I1120">
-        <v>0.453401</v>
+        <v>0.48402899999999999</v>
       </c>
       <c r="J1120">
-        <v>218.49</v>
+        <v>216.89500000000001</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.2">
@@ -36182,22 +40109,22 @@
         <v>0.1</v>
       </c>
       <c r="E1121">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F1121">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1121" s="1">
-        <v>2065990</v>
+        <v>2020880</v>
       </c>
       <c r="H1121" s="2">
-        <v>4610.5200000000004</v>
+        <v>4464.82</v>
       </c>
       <c r="I1121">
-        <v>0.48402899999999999</v>
+        <v>0.49483500000000002</v>
       </c>
       <c r="J1121">
-        <v>216.89500000000001</v>
+        <v>223.97300000000001</v>
       </c>
     </row>
     <row r="1122" spans="1:10" x14ac:dyDescent="0.2">
@@ -36217,19 +40144,19 @@
         <v>0.5</v>
       </c>
       <c r="F1122">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1122" s="1">
-        <v>2020880</v>
+        <v>2051980</v>
       </c>
       <c r="H1122" s="2">
-        <v>4464.82</v>
+        <v>4624.91</v>
       </c>
       <c r="I1122">
-        <v>0.49483500000000002</v>
+        <v>0.48733300000000002</v>
       </c>
       <c r="J1122">
-        <v>223.97300000000001</v>
+        <v>216.22</v>
       </c>
     </row>
     <row r="1123" spans="1:10" x14ac:dyDescent="0.2">
@@ -36246,22 +40173,22 @@
         <v>0.1</v>
       </c>
       <c r="E1123">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F1123">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G1123" s="1">
-        <v>2051980</v>
+        <v>1725880</v>
       </c>
       <c r="H1123" s="2">
-        <v>4624.91</v>
+        <v>14986.2</v>
       </c>
       <c r="I1123">
-        <v>0.48733300000000002</v>
+        <v>0.57941399999999998</v>
       </c>
       <c r="J1123">
-        <v>216.22</v>
+        <v>66.727900000000005</v>
       </c>
     </row>
     <row r="1124" spans="1:10" x14ac:dyDescent="0.2">
@@ -36281,54 +40208,687 @@
         <v>0.8</v>
       </c>
       <c r="F1124">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G1124" s="1">
-        <v>1725880</v>
+        <v>1707060</v>
       </c>
       <c r="H1124" s="2">
-        <v>14986.2</v>
+        <v>16222</v>
       </c>
       <c r="I1124">
-        <v>0.57941399999999998</v>
+        <v>0.58580299999999996</v>
       </c>
       <c r="J1124">
-        <v>66.727900000000005</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1125">
-        <v>1000000</v>
-      </c>
-      <c r="B1125">
-        <v>1000</v>
-      </c>
-      <c r="C1125">
-        <v>100000</v>
-      </c>
-      <c r="D1125">
-        <v>0.1</v>
-      </c>
-      <c r="E1125">
-        <v>0.8</v>
-      </c>
-      <c r="F1125">
-        <v>1000</v>
-      </c>
-      <c r="G1125" s="1">
-        <v>1707060</v>
-      </c>
-      <c r="H1125" s="2">
-        <v>16222</v>
-      </c>
-      <c r="I1125">
-        <v>0.58580299999999996</v>
-      </c>
-      <c r="J1125">
         <v>61.644599999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51:E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000000</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>1E-4</v>
+      </c>
+      <c r="E2">
+        <v>0.8</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>191556</v>
+      </c>
+      <c r="H2" s="3">
+        <v>633498</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5.2203999999999997</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.5785400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000000</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>1E-4</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>551992</v>
+      </c>
+      <c r="H3" s="3">
+        <v>560811</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.81162</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.7831300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000000</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>1E-4</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>915979</v>
+      </c>
+      <c r="H4" s="3">
+        <v>341450</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.0917300000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.92869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000000</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>1E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1166730</v>
+      </c>
+      <c r="H5" s="3">
+        <v>248005</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.85709400000000002</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.0321800000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6">
+        <v>1E-4</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1370020</v>
+      </c>
+      <c r="H6" s="3">
+        <v>205014</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.72991399999999995</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4.8777100000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>1E-4</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1409170</v>
+      </c>
+      <c r="H7" s="3">
+        <v>169512</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.70963699999999996</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.8992699999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1000000</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>100000</v>
+      </c>
+      <c r="D8">
+        <v>1E-4</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1528490</v>
+      </c>
+      <c r="H8" s="3">
+        <v>88122.5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.65424199999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>11.347799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1000000</v>
+      </c>
+      <c r="B9">
+        <v>750</v>
+      </c>
+      <c r="C9">
+        <v>100000</v>
+      </c>
+      <c r="D9">
+        <v>1E-4</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1485800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>55074.7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.67303599999999997</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18.1571</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>123.1</v>
+      </c>
+      <c r="D51">
+        <v>1834.8</v>
+      </c>
+      <c r="E51">
+        <f>D51/C51</f>
+        <v>14.904955320877336</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D52">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="E52">
+        <f>D52/C52</f>
+        <v>6.7830687830687832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1000000</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1">
+        <v>100000</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0.8</v>
+      </c>
+      <c r="F1">
+        <v>1000</v>
+      </c>
+      <c r="G1">
+        <v>909386</v>
+      </c>
+      <c r="H1">
+        <v>3633.99</v>
+      </c>
+      <c r="I1">
+        <v>1.09964</v>
+      </c>
+      <c r="J1">
+        <v>275.18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000000</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.8</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>793166</v>
+      </c>
+      <c r="H2">
+        <v>27401.3</v>
+      </c>
+      <c r="I2">
+        <v>1.2607699999999999</v>
+      </c>
+      <c r="J2">
+        <v>36.494599999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000000</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100000</v>
+      </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>997351</v>
+      </c>
+      <c r="H3">
+        <v>156721</v>
+      </c>
+      <c r="I3">
+        <v>1.0026600000000001</v>
+      </c>
+      <c r="J3">
+        <v>6.3807600000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000000</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100000</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>888420</v>
+      </c>
+      <c r="H4">
+        <v>309019</v>
+      </c>
+      <c r="I4">
+        <v>1.1255900000000001</v>
+      </c>
+      <c r="J4">
+        <v>3.2360500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000000</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5">
+        <v>1E-4</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>862762</v>
+      </c>
+      <c r="H5">
+        <v>340162</v>
+      </c>
+      <c r="I5">
+        <v>1.15907</v>
+      </c>
+      <c r="J5">
+        <v>2.9397700000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E6">
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>774512</v>
+      </c>
+      <c r="H6">
+        <v>327806</v>
+      </c>
+      <c r="I6">
+        <v>1.2911300000000001</v>
+      </c>
+      <c r="J6">
+        <v>3.0505800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1000000</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>831449</v>
+      </c>
+      <c r="H7">
+        <v>340143</v>
+      </c>
+      <c r="I7">
+        <v>1.20272</v>
+      </c>
+      <c r="J7">
+        <v>2.93994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>200000000</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1">
+        <v>540541000</v>
+      </c>
+      <c r="D1">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="E1" s="2">
+        <f>C1/1000</f>
+        <v>540541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>200000000</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>642674000</v>
+      </c>
+      <c r="D2">
+        <v>1.5560000000000001E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2/1000</f>
+        <v>642674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200000000</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>692521000</v>
+      </c>
+      <c r="D3">
+        <v>1.444E-3</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E5" si="0">C3/1000</f>
+        <v>692521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>200000000</v>
+      </c>
+      <c r="B4">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>571102000</v>
+      </c>
+      <c r="D4">
+        <v>1.751E-3</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>571102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>200000000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>538793000</v>
+      </c>
+      <c r="D5">
+        <v>1.856E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>538793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/LSM Testing.xlsx
+++ b/LSM Testing.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Full" sheetId="1" r:id="rId1"/>
     <sheet name="NumRuns" sheetId="2" r:id="rId2"/>
-    <sheet name="Bloom Filter" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Concurrent Lookup" sheetId="5" r:id="rId3"/>
+    <sheet name="Bloom Filter" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>**OVERALL WINNER?</t>
   </si>
@@ -45,6 +46,15 @@
   </si>
   <si>
     <t>System Calls</t>
+  </si>
+  <si>
+    <t>nthreads</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>lookups/sec</t>
   </si>
 </sst>
 </file>
@@ -80,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,7 +155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -357,11 +367,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2038751504"/>
-        <c:axId val="-2038755072"/>
+        <c:axId val="-2116150160"/>
+        <c:axId val="-2078926592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2038751504"/>
+        <c:axId val="-2116150160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038755072"/>
+        <c:crossAx val="-2078926592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -412,7 +422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038755072"/>
+        <c:axId val="-2078926592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2038751504"/>
+        <c:crossAx val="-2116150160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -477,7 +487,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -744,11 +753,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2029727264"/>
-        <c:axId val="-2029545600"/>
+        <c:axId val="2116168880"/>
+        <c:axId val="2116791104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2029727264"/>
+        <c:axId val="2116168880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -791,7 +800,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029545600"/>
+        <c:crossAx val="2116791104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -799,7 +808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029545600"/>
+        <c:axId val="2116791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029727264"/>
+        <c:crossAx val="2116168880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,7 +985,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1175,11 +1183,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2037541232"/>
-        <c:axId val="-2037734512"/>
+        <c:axId val="-2078924736"/>
+        <c:axId val="-2078853472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2037541232"/>
+        <c:axId val="-2078924736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037734512"/>
+        <c:crossAx val="-2078853472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1230,7 +1238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037734512"/>
+        <c:axId val="-2078853472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1281,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2037541232"/>
+        <c:crossAx val="-2078924736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,7 +1303,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1407,7 +1414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1515,11 +1521,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2075036464"/>
-        <c:axId val="-2075878080"/>
+        <c:axId val="-2116319120"/>
+        <c:axId val="-2116377152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2075036464"/>
+        <c:axId val="-2116319120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075878080"/>
+        <c:crossAx val="-2116377152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075878080"/>
+        <c:axId val="-2116377152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2075036464"/>
+        <c:crossAx val="-2116319120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -40232,7 +40238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="75" workbookViewId="0">
       <selection activeCell="E51" sqref="E51:E52"/>
     </sheetView>
   </sheetViews>
@@ -40546,6 +40552,310 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>11.9321</v>
+      </c>
+      <c r="C2" s="4">
+        <v>167615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>12.1492</v>
+      </c>
+      <c r="C3" s="4">
+        <v>329239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>13.818300000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>434207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>13.2469</v>
+      </c>
+      <c r="C5" s="4">
+        <v>603914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>12.909599999999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>774615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>12.999000000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>923145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>12.1182</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1155290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>13.8581</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1154560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>14.513500000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1240230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>14.1015</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1418290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>14.2439</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1544520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>14.3736</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1669730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>15.1713</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1713760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>16.571899999999999</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1689610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>15.090299999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1988030</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>15.8408</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2020100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>18.296600000000002</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1858270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>19.1678</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1878150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>18.8523</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2015670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>21.4878</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1861530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>21.7681</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1929430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>22.470500000000001</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1958120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>23.904199999999999</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1924350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>24.5168</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1957840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>24.664100000000001</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2027240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="75" workbookViewId="0">
@@ -40784,7 +41094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
